--- a/Team-Data/2012-13/10-30-2012-13.xlsx
+++ b/Team-Data/2012-13/10-30-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF7"/>
+  <dimension ref="A1:KL7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,6 +716,1206 @@
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
+          <t>TEAM_ID</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>E_OFF_RATING</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>OFF_RATING</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>E_DEF_RATING</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>DEF_RATING</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>E_NET_RATING</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>NET_RATING</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>AST_PCT</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>AST_TO</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>AST_RATIO</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>OREB_PCT</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>DREB_PCT</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>REB_PCT</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>TM_TOV_PCT</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>EFG_PCT</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>TS_PCT</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>E_PACE</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>PACE</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>PACE_PER40</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>POSS</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>PIE</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>GP_RANK</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>W_RANK</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>L_RANK</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_RANK</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>OFF_RATING_RANK</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>DEF_RATING_RANK</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>NET_RATING_RANK</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>AST_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>AST_TO_RANK</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>AST_RATIO_RANK</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>OREB_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>DREB_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>REB_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>TM_TOV_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>EFG_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>TS_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>PACE_RANK</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>PIE_RANK</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>CFID</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>CFPARAMS</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_ID</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>EFG_PCT</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>FTA_RATE</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>TM_TOV_PCT</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>OREB_PCT</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_EFG_PCT</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FTA_RATE</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_TOV_PCT</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_OREB_PCT</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>GP_RANK</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>W_RANK</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>L_RANK</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_RANK</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>EFG_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>FTA_RATE_RANK</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>TM_TOV_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>OREB_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_EFG_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FTA_RATE_RANK</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_TOV_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_OREB_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>CFID</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>CFPARAMS</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_ID</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_OFF_TOV</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_2ND_CHANCE</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_FB</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_PAINT</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_OFF_TOV</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_2ND_CHANCE</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_FB</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_PAINT</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>GP_RANK</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>W_RANK</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>L_RANK</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_RANK</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_OFF_TOV_RANK</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_2ND_CHANCE_RANK</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_FB_RANK</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_PAINT_RANK</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_OFF_TOV_RANK</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_2ND_CHANCE_RANK</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_FB_RANK</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_PAINT_RANK</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>CFID</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>CFPARAMS</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_ID</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_FGA_2PT</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_FGA_3PT</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_2PT</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_2PT_MR</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_3PT</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_FB</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_FT</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_OFF_TOV</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_PAINT</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_AST_2PM</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_UAST_2PM</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_AST_3PM</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_UAST_3PM</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_AST_FGM</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_UAST_FGM</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>GP_RANK</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>W_RANK</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>L_RANK</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_RANK</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_FGA_2PT_RANK</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_FGA_3PT_RANK</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_2PT_RANK</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_2PT_MR_RANK</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_3PT_RANK</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_FB_RANK</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_FT_RANK</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_OFF_TOV_RANK</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_PAINT_RANK</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_AST_2PM_RANK</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_UAST_2PM_RANK</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_AST_3PM_RANK</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_UAST_3PM_RANK</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_AST_FGM_RANK</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_UAST_FGM_RANK</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>CFID</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>CFPARAMS</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_ID</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>DEF_RATING</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>DREB</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>DREB_PCT</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_OFF_TOV</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_2ND_CHANCE</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_FB</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_PAINT</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>GP_RANK</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>W_RANK</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>L_RANK</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_RANK</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>DEF_RATING_RANK</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>DREB_RANK</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>DREB_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>STL_RANK</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>BLK_RANK</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_OFF_TOV_RANK</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_2ND_CHANCE_RANK</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_FB_RANK</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_PAINT_RANK</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>CFID</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>CFPARAMS</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_ID</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FGM</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FGA</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG_PCT</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG3M</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG3A</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG3_PCT</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FTM</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FTA</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FT_PCT</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_OREB</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_DREB</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_REB</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_AST</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_TOV</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_STL</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_BLK</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_BLKA</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PF</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PFD</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>PLUS_MINUS</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>GP_RANK</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>W_RANK</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>L_RANK</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_RANK</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FGM_RANK</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FGA_RANK</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG3M_RANK</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG3A_RANK</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG3_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FTM_RANK</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FTA_RANK</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FT_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_OREB_RANK</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_DREB_RANK</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_REB_RANK</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_AST_RANK</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_TOV_RANK</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_STL_RANK</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_BLK_RANK</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_BLKA_RANK</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PF_RANK</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PFD_RANK</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_RANK</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>PLUS_MINUS_RANK</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>CFID</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>CFPARAMS</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
@@ -829,7 +2096,751 @@
           <t>Boston Celtics</t>
         </is>
       </c>
-      <c r="BF2" t="inlineStr">
+      <c r="BF2" t="n">
+        <v>1610612738</v>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>48</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>111.1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>110.3</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>-12.1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>97</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>6</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>10</v>
+      </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="DB2" t="n">
+        <v>1610612738</v>
+      </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>48</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>4</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>4</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>4</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>2</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>3</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>5</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>5</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>6</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>6</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>6</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>10</v>
+      </c>
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="EF2" t="n">
+        <v>1610612738</v>
+      </c>
+      <c r="EG2" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>48</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>6</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>6</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>27</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>42</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>19</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>6</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>12</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>46</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>4</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>4</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>4</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>6</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>5</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>4</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>5</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>4</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>10</v>
+      </c>
+      <c r="FI2" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1610612738</v>
+      </c>
+      <c r="FK2" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>48</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.827</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>4</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>4</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>4</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>2</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>5</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>4</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>2</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>4</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>6</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>4</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>3</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>4</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>5</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>4</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>10</v>
+      </c>
+      <c r="HA2" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="HB2" t="n">
+        <v>1610612738</v>
+      </c>
+      <c r="HC2" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="HD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>48</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>34</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>4</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>19</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>6</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>12</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>46</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>4</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>4</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>4</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>6</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IG2" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="IH2" t="n">
+        <v>1610612738</v>
+      </c>
+      <c r="II2" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>48</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>79</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>31</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>120</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KK2" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="KL2" t="inlineStr">
         <is>
           <t>10-30-2012-13</t>
         </is>
@@ -1011,7 +3022,751 @@
           <t>Cleveland Cavaliers</t>
         </is>
       </c>
-      <c r="BF3" t="inlineStr">
+      <c r="BF3" t="n">
+        <v>1610612739</v>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="BH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>48</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>13</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>77.08</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>93</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>5</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>6</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>6</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="DA3" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="DB3" t="n">
+        <v>1610612739</v>
+      </c>
+      <c r="DC3" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="DD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>48</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>4</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>6</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>2</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>4</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>10</v>
+      </c>
+      <c r="EE3" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="EF3" t="n">
+        <v>1610612739</v>
+      </c>
+      <c r="EG3" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="EH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>48</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>20</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>24</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>6</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>42</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>13</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>7</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>13</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>32</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>6</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>4</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>4</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>10</v>
+      </c>
+      <c r="FI3" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="FJ3" t="n">
+        <v>1610612739</v>
+      </c>
+      <c r="FK3" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="FL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>48</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>5</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>2</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>5</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>2</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>6</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>4</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>4</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>4</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="HA3" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="HB3" t="n">
+        <v>1610612739</v>
+      </c>
+      <c r="HC3" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="HD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>48</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>36</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>7</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>13</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>7</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>13</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>32</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>4</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>10</v>
+      </c>
+      <c r="IG3" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="IH3" t="n">
+        <v>1610612739</v>
+      </c>
+      <c r="II3" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="IJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>48</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>32</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>90</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>8</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>32</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>12</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>20</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>18</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>21</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>39</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>26</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>13</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>10</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>5</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>19</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>21</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>84</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>-10</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>6</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>2</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>2</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>5</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>4</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>6</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="KK3" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="KL3" t="inlineStr">
         <is>
           <t>10-30-2012-13</t>
         </is>
@@ -1193,7 +3948,751 @@
           <t>Dallas Mavericks</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr">
+      <c r="BF4" t="n">
+        <v>1610612742</v>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="BH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>48</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>110</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>74.58</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>90</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>6</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>5</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>5</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>4</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>5</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="DA4" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="DB4" t="n">
+        <v>1610612742</v>
+      </c>
+      <c r="DC4" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="DD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>48</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>4</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>6</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>2</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>3</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>4</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>5</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>5</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>10</v>
+      </c>
+      <c r="EE4" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="EF4" t="n">
+        <v>1610612742</v>
+      </c>
+      <c r="EG4" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="EH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>48</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>17</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>7</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>46</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>12</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>7</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>56</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>3</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>2</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>5</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>2</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>6</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="FI4" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="FJ4" t="n">
+        <v>1610612742</v>
+      </c>
+      <c r="FK4" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="FL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>48</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="FY4" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="FZ4" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="GA4" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="GB4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="GC4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="GD4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="GE4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="GF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK4" t="n">
+        <v>3</v>
+      </c>
+      <c r="GL4" t="n">
+        <v>4</v>
+      </c>
+      <c r="GM4" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO4" t="n">
+        <v>5</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>5</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>5</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>6</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>6</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="HA4" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="HB4" t="n">
+        <v>1610612742</v>
+      </c>
+      <c r="HC4" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="HD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>48</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>31</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>9</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>17</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>12</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>7</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>56</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>5</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>5</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>6</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>10</v>
+      </c>
+      <c r="IG4" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="IH4" t="n">
+        <v>1610612742</v>
+      </c>
+      <c r="II4" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="IJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>48</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>38</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>77</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>3</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>13</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>12</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>31</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>15</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>31</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>46</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>24</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>14</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>6</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>5</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>5</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>21</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>25</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>91</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>-8</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>3</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>4</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>5</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>4</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>3</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>3</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="KK4" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="KL4" t="inlineStr">
         <is>
           <t>10-30-2012-13</t>
         </is>
@@ -1375,7 +4874,751 @@
           <t>Los Angeles Lakers</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr">
+      <c r="BF5" t="n">
+        <v>1610612747</v>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="BH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>48</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>110</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>-7.8</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>74.58</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>89</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>5</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="DA5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="DB5" t="n">
+        <v>1610612747</v>
+      </c>
+      <c r="DC5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="DD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>48</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>4</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>4</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>4</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>4</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>2</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>5</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>4</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>10</v>
+      </c>
+      <c r="EE5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="EF5" t="n">
+        <v>1610612747</v>
+      </c>
+      <c r="EG5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="EH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>48</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>17</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>12</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>7</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>56</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>7</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>13</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>46</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>4</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>4</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>4</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>3</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>5</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>4</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>4</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>10</v>
+      </c>
+      <c r="FI5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="FJ5" t="n">
+        <v>1610612747</v>
+      </c>
+      <c r="FK5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="FL5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP5" t="n">
+        <v>48</v>
+      </c>
+      <c r="FQ5" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="FR5" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="FS5" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="FT5" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="FU5" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="FV5" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="FW5" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="FX5" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="FY5" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="FZ5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="GA5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="GB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD5" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="GE5" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="GF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG5" t="n">
+        <v>4</v>
+      </c>
+      <c r="GH5" t="n">
+        <v>4</v>
+      </c>
+      <c r="GI5" t="n">
+        <v>4</v>
+      </c>
+      <c r="GJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL5" t="n">
+        <v>6</v>
+      </c>
+      <c r="GM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN5" t="n">
+        <v>6</v>
+      </c>
+      <c r="GO5" t="n">
+        <v>6</v>
+      </c>
+      <c r="GP5" t="n">
+        <v>5</v>
+      </c>
+      <c r="GQ5" t="n">
+        <v>6</v>
+      </c>
+      <c r="GR5" t="n">
+        <v>2</v>
+      </c>
+      <c r="GS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT5" t="n">
+        <v>2</v>
+      </c>
+      <c r="GU5" t="n">
+        <v>5</v>
+      </c>
+      <c r="GV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW5" t="n">
+        <v>4</v>
+      </c>
+      <c r="GX5" t="n">
+        <v>2</v>
+      </c>
+      <c r="GY5" t="n">
+        <v>5</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="HA5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="HB5" t="n">
+        <v>1610612747</v>
+      </c>
+      <c r="HC5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="HD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH5" t="n">
+        <v>48</v>
+      </c>
+      <c r="HI5" t="n">
+        <v>110</v>
+      </c>
+      <c r="HJ5" t="n">
+        <v>31</v>
+      </c>
+      <c r="HK5" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="HL5" t="n">
+        <v>6</v>
+      </c>
+      <c r="HM5" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>17</v>
+      </c>
+      <c r="HO5" t="n">
+        <v>7</v>
+      </c>
+      <c r="HP5" t="n">
+        <v>13</v>
+      </c>
+      <c r="HQ5" t="n">
+        <v>46</v>
+      </c>
+      <c r="HR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS5" t="n">
+        <v>4</v>
+      </c>
+      <c r="HT5" t="n">
+        <v>4</v>
+      </c>
+      <c r="HU5" t="n">
+        <v>4</v>
+      </c>
+      <c r="HV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX5" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY5" t="n">
+        <v>4</v>
+      </c>
+      <c r="HZ5" t="n">
+        <v>5</v>
+      </c>
+      <c r="IA5" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB5" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC5" t="n">
+        <v>3</v>
+      </c>
+      <c r="ID5" t="n">
+        <v>4</v>
+      </c>
+      <c r="IE5" t="n">
+        <v>4</v>
+      </c>
+      <c r="IF5" t="n">
+        <v>10</v>
+      </c>
+      <c r="IG5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="IH5" t="n">
+        <v>1610612747</v>
+      </c>
+      <c r="II5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="IJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN5" t="n">
+        <v>48</v>
+      </c>
+      <c r="IO5" t="n">
+        <v>40</v>
+      </c>
+      <c r="IP5" t="n">
+        <v>85</v>
+      </c>
+      <c r="IQ5" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="IR5" t="n">
+        <v>5</v>
+      </c>
+      <c r="IS5" t="n">
+        <v>15</v>
+      </c>
+      <c r="IT5" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="IU5" t="n">
+        <v>14</v>
+      </c>
+      <c r="IV5" t="n">
+        <v>18</v>
+      </c>
+      <c r="IW5" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="IX5" t="n">
+        <v>9</v>
+      </c>
+      <c r="IY5" t="n">
+        <v>31</v>
+      </c>
+      <c r="IZ5" t="n">
+        <v>40</v>
+      </c>
+      <c r="JA5" t="n">
+        <v>22</v>
+      </c>
+      <c r="JB5" t="n">
+        <v>12</v>
+      </c>
+      <c r="JC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="JD5" t="n">
+        <v>5</v>
+      </c>
+      <c r="JE5" t="n">
+        <v>5</v>
+      </c>
+      <c r="JF5" t="n">
+        <v>25</v>
+      </c>
+      <c r="JG5" t="n">
+        <v>21</v>
+      </c>
+      <c r="JH5" t="n">
+        <v>99</v>
+      </c>
+      <c r="JI5" t="n">
+        <v>8</v>
+      </c>
+      <c r="JJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK5" t="n">
+        <v>4</v>
+      </c>
+      <c r="JL5" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM5" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO5" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP5" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>3</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>2</v>
+      </c>
+      <c r="JS5" t="n">
+        <v>3</v>
+      </c>
+      <c r="JT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="JU5" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW5" t="n">
+        <v>4</v>
+      </c>
+      <c r="JX5" t="n">
+        <v>3</v>
+      </c>
+      <c r="JY5" t="n">
+        <v>2</v>
+      </c>
+      <c r="JZ5" t="n">
+        <v>3</v>
+      </c>
+      <c r="KA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB5" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC5" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD5" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE5" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF5" t="n">
+        <v>6</v>
+      </c>
+      <c r="KG5" t="n">
+        <v>3</v>
+      </c>
+      <c r="KH5" t="n">
+        <v>4</v>
+      </c>
+      <c r="KI5" t="n">
+        <v>4</v>
+      </c>
+      <c r="KJ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="KK5" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="KL5" t="inlineStr">
         <is>
           <t>10-30-2012-13</t>
         </is>
@@ -1557,7 +5800,751 @@
           <t>Miami Heat</t>
         </is>
       </c>
-      <c r="BF6" t="inlineStr">
+      <c r="BF6" t="n">
+        <v>1610612748</v>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="BH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>48</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>111.1</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>110.3</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>98</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>5</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>5</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>6</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>5</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="DA6" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="DB6" t="n">
+        <v>1610612748</v>
+      </c>
+      <c r="DC6" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="DD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>48</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>6</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>5</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>4</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>10</v>
+      </c>
+      <c r="EE6" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="EF6" t="n">
+        <v>1610612748</v>
+      </c>
+      <c r="EG6" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="EH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>48</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>19</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>6</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>12</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>46</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>6</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>6</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>27</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>42</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>5</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>4</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>2</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>6</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>2</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>10</v>
+      </c>
+      <c r="FI6" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="FJ6" t="n">
+        <v>1610612748</v>
+      </c>
+      <c r="FK6" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="FL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO6" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>48</v>
+      </c>
+      <c r="FQ6" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="FX6" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="FY6" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="FZ6" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="GA6" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="GB6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="GC6" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="GD6" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="GE6" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="GF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK6" t="n">
+        <v>4</v>
+      </c>
+      <c r="GL6" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM6" t="n">
+        <v>5</v>
+      </c>
+      <c r="GN6" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO6" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP6" t="n">
+        <v>4</v>
+      </c>
+      <c r="GQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR6" t="n">
+        <v>4</v>
+      </c>
+      <c r="GS6" t="n">
+        <v>5</v>
+      </c>
+      <c r="GT6" t="n">
+        <v>5</v>
+      </c>
+      <c r="GU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV6" t="n">
+        <v>4</v>
+      </c>
+      <c r="GW6" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX6" t="n">
+        <v>5</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>2</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="HA6" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="HB6" t="n">
+        <v>1610612748</v>
+      </c>
+      <c r="HC6" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="HD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH6" t="n">
+        <v>48</v>
+      </c>
+      <c r="HI6" t="n">
+        <v>110.3</v>
+      </c>
+      <c r="HJ6" t="n">
+        <v>31</v>
+      </c>
+      <c r="HK6" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="HL6" t="n">
+        <v>8</v>
+      </c>
+      <c r="HM6" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>6</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>27</v>
+      </c>
+      <c r="HQ6" t="n">
+        <v>42</v>
+      </c>
+      <c r="HR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW6" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>2</v>
+      </c>
+      <c r="HZ6" t="n">
+        <v>3</v>
+      </c>
+      <c r="IA6" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID6" t="n">
+        <v>6</v>
+      </c>
+      <c r="IE6" t="n">
+        <v>2</v>
+      </c>
+      <c r="IF6" t="n">
+        <v>10</v>
+      </c>
+      <c r="IG6" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="IH6" t="n">
+        <v>1610612748</v>
+      </c>
+      <c r="II6" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="IJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN6" t="n">
+        <v>48</v>
+      </c>
+      <c r="IO6" t="n">
+        <v>39</v>
+      </c>
+      <c r="IP6" t="n">
+        <v>75</v>
+      </c>
+      <c r="IQ6" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="IR6" t="n">
+        <v>6</v>
+      </c>
+      <c r="IS6" t="n">
+        <v>13</v>
+      </c>
+      <c r="IT6" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="IU6" t="n">
+        <v>23</v>
+      </c>
+      <c r="IV6" t="n">
+        <v>28</v>
+      </c>
+      <c r="IW6" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="IX6" t="n">
+        <v>7</v>
+      </c>
+      <c r="IY6" t="n">
+        <v>34</v>
+      </c>
+      <c r="IZ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="JA6" t="n">
+        <v>24</v>
+      </c>
+      <c r="JB6" t="n">
+        <v>16</v>
+      </c>
+      <c r="JC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD6" t="n">
+        <v>2</v>
+      </c>
+      <c r="JE6" t="n">
+        <v>5</v>
+      </c>
+      <c r="JF6" t="n">
+        <v>23</v>
+      </c>
+      <c r="JG6" t="n">
+        <v>20</v>
+      </c>
+      <c r="JH6" t="n">
+        <v>107</v>
+      </c>
+      <c r="JI6" t="n">
+        <v>-13</v>
+      </c>
+      <c r="JJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO6" t="n">
+        <v>4</v>
+      </c>
+      <c r="JP6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT6" t="n">
+        <v>5</v>
+      </c>
+      <c r="JU6" t="n">
+        <v>5</v>
+      </c>
+      <c r="JV6" t="n">
+        <v>4</v>
+      </c>
+      <c r="JW6" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX6" t="n">
+        <v>2</v>
+      </c>
+      <c r="JY6" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ6" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA6" t="n">
+        <v>3</v>
+      </c>
+      <c r="KB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="KC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE6" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF6" t="n">
+        <v>5</v>
+      </c>
+      <c r="KG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="KH6" t="n">
+        <v>5</v>
+      </c>
+      <c r="KI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="KK6" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="KL6" t="inlineStr">
         <is>
           <t>10-30-2012-13</t>
         </is>
@@ -1739,7 +6726,751 @@
           <t>Washington Wizards</t>
         </is>
       </c>
-      <c r="BF7" t="inlineStr">
+      <c r="BF7" t="n">
+        <v>1610612764</v>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="BH7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>48</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>-13</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>77.08</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>92</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>4</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>4</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>6</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>6</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>6</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>6</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>6</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>6</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="DA7" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="DB7" t="n">
+        <v>1610612764</v>
+      </c>
+      <c r="DC7" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="DD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>48</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>4</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>4</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>4</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>6</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>3</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>4</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>2</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>3</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>6</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>10</v>
+      </c>
+      <c r="EE7" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="EF7" t="n">
+        <v>1610612764</v>
+      </c>
+      <c r="EG7" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="EH7" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>48</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>13</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>7</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>13</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>32</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>20</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>24</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>6</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>42</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>4</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>4</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>4</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>2</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>6</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>6</v>
+      </c>
+      <c r="FF7" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>2</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>10</v>
+      </c>
+      <c r="FI7" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="FJ7" t="n">
+        <v>1610612764</v>
+      </c>
+      <c r="FK7" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="FL7" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN7" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP7" t="n">
+        <v>48</v>
+      </c>
+      <c r="FQ7" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="FR7" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="FS7" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="FT7" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="FU7" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="FV7" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="FW7" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="FX7" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="FY7" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="FZ7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="GA7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="GB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD7" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="GE7" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="GF7" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG7" t="n">
+        <v>4</v>
+      </c>
+      <c r="GH7" t="n">
+        <v>4</v>
+      </c>
+      <c r="GI7" t="n">
+        <v>4</v>
+      </c>
+      <c r="GJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK7" t="n">
+        <v>6</v>
+      </c>
+      <c r="GL7" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM7" t="n">
+        <v>6</v>
+      </c>
+      <c r="GN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="GO7" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP7" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ7" t="n">
+        <v>4</v>
+      </c>
+      <c r="GR7" t="n">
+        <v>5</v>
+      </c>
+      <c r="GS7" t="n">
+        <v>6</v>
+      </c>
+      <c r="GT7" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU7" t="n">
+        <v>6</v>
+      </c>
+      <c r="GV7" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW7" t="n">
+        <v>4</v>
+      </c>
+      <c r="GX7" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY7" t="n">
+        <v>6</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="HA7" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="HB7" t="n">
+        <v>1610612764</v>
+      </c>
+      <c r="HC7" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="HD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF7" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH7" t="n">
+        <v>48</v>
+      </c>
+      <c r="HI7" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="HJ7" t="n">
+        <v>21</v>
+      </c>
+      <c r="HK7" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="HL7" t="n">
+        <v>11</v>
+      </c>
+      <c r="HM7" t="n">
+        <v>10</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>20</v>
+      </c>
+      <c r="HO7" t="n">
+        <v>24</v>
+      </c>
+      <c r="HP7" t="n">
+        <v>6</v>
+      </c>
+      <c r="HQ7" t="n">
+        <v>42</v>
+      </c>
+      <c r="HR7" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS7" t="n">
+        <v>4</v>
+      </c>
+      <c r="HT7" t="n">
+        <v>4</v>
+      </c>
+      <c r="HU7" t="n">
+        <v>4</v>
+      </c>
+      <c r="HV7" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW7" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX7" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY7" t="n">
+        <v>6</v>
+      </c>
+      <c r="HZ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB7" t="n">
+        <v>6</v>
+      </c>
+      <c r="IC7" t="n">
+        <v>6</v>
+      </c>
+      <c r="ID7" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE7" t="n">
+        <v>2</v>
+      </c>
+      <c r="IF7" t="n">
+        <v>10</v>
+      </c>
+      <c r="IG7" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="IH7" t="n">
+        <v>1610612764</v>
+      </c>
+      <c r="II7" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="IJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL7" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN7" t="n">
+        <v>48</v>
+      </c>
+      <c r="IO7" t="n">
+        <v>36</v>
+      </c>
+      <c r="IP7" t="n">
+        <v>79</v>
+      </c>
+      <c r="IQ7" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="IR7" t="n">
+        <v>7</v>
+      </c>
+      <c r="IS7" t="n">
+        <v>20</v>
+      </c>
+      <c r="IT7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="IU7" t="n">
+        <v>15</v>
+      </c>
+      <c r="IV7" t="n">
+        <v>22</v>
+      </c>
+      <c r="IW7" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="IX7" t="n">
+        <v>18</v>
+      </c>
+      <c r="IY7" t="n">
+        <v>36</v>
+      </c>
+      <c r="IZ7" t="n">
+        <v>54</v>
+      </c>
+      <c r="JA7" t="n">
+        <v>22</v>
+      </c>
+      <c r="JB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="JC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="JD7" t="n">
+        <v>5</v>
+      </c>
+      <c r="JE7" t="n">
+        <v>10</v>
+      </c>
+      <c r="JF7" t="n">
+        <v>21</v>
+      </c>
+      <c r="JG7" t="n">
+        <v>19</v>
+      </c>
+      <c r="JH7" t="n">
+        <v>94</v>
+      </c>
+      <c r="JI7" t="n">
+        <v>10</v>
+      </c>
+      <c r="JJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK7" t="n">
+        <v>4</v>
+      </c>
+      <c r="JL7" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM7" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN7" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO7" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP7" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>2</v>
+      </c>
+      <c r="JR7" t="n">
+        <v>4</v>
+      </c>
+      <c r="JS7" t="n">
+        <v>5</v>
+      </c>
+      <c r="JT7" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU7" t="n">
+        <v>4</v>
+      </c>
+      <c r="JV7" t="n">
+        <v>3</v>
+      </c>
+      <c r="JW7" t="n">
+        <v>3</v>
+      </c>
+      <c r="JX7" t="n">
+        <v>5</v>
+      </c>
+      <c r="JY7" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ7" t="n">
+        <v>6</v>
+      </c>
+      <c r="KA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC7" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD7" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF7" t="n">
+        <v>3</v>
+      </c>
+      <c r="KG7" t="n">
+        <v>6</v>
+      </c>
+      <c r="KH7" t="n">
+        <v>3</v>
+      </c>
+      <c r="KI7" t="n">
+        <v>5</v>
+      </c>
+      <c r="KJ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="KK7" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="KL7" t="inlineStr">
         <is>
           <t>10-30-2012-13</t>
         </is>
